--- a/medicine/Enfance/Stasys_Eidrigevičius/Stasys_Eidrigevičius.xlsx
+++ b/medicine/Enfance/Stasys_Eidrigevičius/Stasys_Eidrigevičius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stasys_Eidrigevi%C4%8Dius</t>
+          <t>Stasys_Eidrigevičius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stasys Eidrigevičius né le 24 juillet 1949 à Mediniškiai (lt) (Lituanie) est un peintre, graphiste, photographe, illustrateur et affichiste polonais d'origine lituanienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stasys_Eidrigevi%C4%8Dius</t>
+          <t>Stasys_Eidrigevičius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stasys Eidrigevicius, également connu sous son seul prénom de Stasys, naît le 24 juillet 1949 dans le village de Mediniškiai (lt) en Lituanie, d'un père polonais et d'une mère lituanienne[1].
-En 1964-1968, il apprend le travail artistique du cuir à l'école des métiers d'art de Kaunas, où il obtient un diplôme avec mention pour la conception de reliures de livres en cuir[1]. À partir de 1968, il poursuit ses études à la faculté de peinture et d'arts graphiques de l'Académie des arts de Vilnius, où il obtient son diplôme en 1973[1].
-Il s'installe à Varsovie en 1980[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stasys Eidrigevicius, également connu sous son seul prénom de Stasys, naît le 24 juillet 1949 dans le village de Mediniškiai (lt) en Lituanie, d'un père polonais et d'une mère lituanienne.
+En 1964-1968, il apprend le travail artistique du cuir à l'école des métiers d'art de Kaunas, où il obtient un diplôme avec mention pour la conception de reliures de livres en cuir. À partir de 1968, il poursuit ses études à la faculté de peinture et d'arts graphiques de l'Académie des arts de Vilnius, où il obtient son diplôme en 1973.
+Il s'installe à Varsovie en 1980.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stasys_Eidrigevi%C4%8Dius</t>
+          <t>Stasys_Eidrigevičius</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eidrigevičius est actif dans de nombreux domaines artistiques, comme la peinture à l'huile, l'illustration de livres, le graphisme et la photographie. Il s'intéresse à l'affiche depuis 1984.
-Il peint ou photographie ses proches, cette observation attentive des traits particuliers lui sert plus tard, lorsqu’il créé sa galerie des visages-masques[3].
+Il peint ou photographie ses proches, cette observation attentive des traits particuliers lui sert plus tard, lorsqu’il créé sa galerie des visages-masques.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stasys_Eidrigevi%C4%8Dius</t>
+          <t>Stasys_Eidrigevičius</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,23 +592,25 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plaque d'Or de Bratislava 1979[4] à la Biennale d'illustration de Bratislava (BIB) pour Robotas ir peteliškė (texte de Vytautė Žilinskaitė).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plaque d'Or de Bratislava 1979 à la Biennale d'illustration de Bratislava (BIB) pour Robotas ir peteliškė (texte de Vytautė Žilinskaitė).
 Mention honorifique au Salon des petites formes graphiques à Łódź, Pologne (1979).
 Médaille d'or à la Biennale internationale d'Exlibris à Malbork (1980).
-Plaque d'Or de Bratislava 1981[4] à la Biennale d'illustration de Bratislava (BIB) pour Król kruków (texte de Paul Delarue).
+Plaque d'Or de Bratislava 1981 à la Biennale d'illustration de Bratislava (BIB) pour Król kruków (texte de Paul Delarue).
 Grand prix d'illustration de livres à Barcelone, Espagne (1986).
 Grand prix à la Biennale internationale de l'affiche de Lahti, Finlande (1989).
-Plaque d'Or de Bratislava 1989[4] à la Biennale d'illustration de Bratislava (BIB) pour Histoires de Nez, texte de James Kruss.
+Plaque d'Or de Bratislava 1989 à la Biennale d'illustration de Bratislava (BIB) pour Histoires de Nez, texte de James Kruss.
 3e Prix à la Biennale internationale de l'affiche de Varsovie (1990).
 Pinceau d'argent (nl) pour ses illustrations de Teus Langneus (texte de James Kruss).
-Grand Prix de Bratislava 1991[4] à la Biennale d'illustration de Bratislava (BIB).
+Grand Prix de Bratislava 1991 à la Biennale d'illustration de Bratislava (BIB).
 Médaille d'or, Toyama, Japon (1994).
 1er prix à la Biennale de l'affiche polonaise, Katowice (1999).
 Prix national des arts, Lituanie (2001).
-Médaille du Mérite culturel polonais Gloria Artis (2010)[5].
-Commandeur de l'ordre du Mérite de la république de Pologne (2019)[6].</t>
+Médaille du Mérite culturel polonais Gloria Artis (2010).
+Commandeur de l'ordre du Mérite de la république de Pologne (2019).</t>
         </is>
       </c>
     </row>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stasys_Eidrigevi%C4%8Dius</t>
+          <t>Stasys_Eidrigevičius</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,11 +638,13 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1999, Vilnius[2].
-2003, Nord-Est, Paris[2].
-2009, Blue Square, Paris[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1999, Vilnius.
+2003, Nord-Est, Paris.
+2009, Blue Square, Paris.</t>
         </is>
       </c>
     </row>
